--- a/Smart pricing using Excel/smart_pricing_project.xlsx
+++ b/Smart pricing using Excel/smart_pricing_project.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fffa66e71c035d84/SPRING_BOARD_CERTIFICATION/New folder/EXCEL/Business Analytics with Excel Elementary to Advanced/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fffa66e71c035d84/SPRING_BOARD_CERTIFICATION/New folder/EXCEL/Business Analytics with Excel Elementary to Advanced/Smart pricing using Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1071" documentId="8_{B4A54B85-C752-4397-AC39-17C5F9264C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD2AC6F-B36D-4961-BC93-9685A8E45053}"/>
+  <xr:revisionPtr revIDLastSave="1140" documentId="8_{B4A54B85-C752-4397-AC39-17C5F9264C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F98F22A-E1F9-4E64-AA98-0B6462486487}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4AB4942-2754-44BF-9100-BB4713212FEA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Demand_vs_Price_Modeling (2)" sheetId="8" r:id="rId1"/>
+    <sheet name="Demand_vs_Price_Modeling" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Total Cost:</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Unit Cost:</t>
   </si>
   <si>
-    <t>&lt;--multiple of 10</t>
-  </si>
-  <si>
     <t>Demand(00s)</t>
   </si>
   <si>
@@ -122,12 +119,6 @@
     <t>Calculate absolute percent error</t>
   </si>
   <si>
-    <t>Step 1: finding the best regression model from Linear, Power, Exponential models.</t>
-  </si>
-  <si>
-    <t>Findings: Power model has the smallest absolute percent error, meaning we can rely on this model for further actions.</t>
-  </si>
-  <si>
     <t>Demand Q'ty (00s)</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
   </si>
   <si>
     <t>Month Number</t>
-  </si>
-  <si>
-    <t>Maximizing Profitability Through Smart Pricing – A Top Good Pest Zapper Initiative</t>
   </si>
   <si>
     <t>Step 2: Model the Business using Power model y=ax^b  (  a = 4827406.32     b = -1.88    x = price)</t>
@@ -167,31 +155,54 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>Given the product’s cost of $250 and a range of possible selling prices from $260 to $830, we can now predict the price point at which demand and pricing align to maximize the company's profit. Beyond this optimal price, profits begin to decline.</t>
+    <t>Maximizing Profitability Through Smart Pricing Using Predictive Model</t>
   </si>
   <si>
-    <t>Below is showing profitability at different unit cost and price combination</t>
+    <t>The marketing team at Top Good Electronics aims to leverage historical data on cost, pricing, and demand for their robotic floor vacuum machine to develop a predictive model that identifies the optimal selling price and sales volume needed to maximize overall profit and optimize inventory strategy.</t>
   </si>
   <si>
-    <t>Findings: this model shows if the cost of each product is $250, at the point where the sale price of  $530 per unit aligned predicted demand of 3648 pcs of product, the company will have the maximized profit of  $1,021,488.</t>
+    <t>Total Price($)</t>
   </si>
   <si>
-    <t>If the cost has changed, the demand and pricing also will change accordingly.</t>
+    <t>Cost per Unit($)</t>
   </si>
   <si>
-    <t>The marketing team at Top Good Pest Zapper aims to leverage historical data on cost, pricing and customer demand of their product, Top good pest zapper (actual sold quantities) to develop a predictive model that identifies the optimal selling price per unit to maximize overall profit.</t>
+    <t>Profit($)</t>
+  </si>
+  <si>
+    <t>&lt;--</t>
+  </si>
+  <si>
+    <t>Below shows profitability at different unit cost vs. different pricing combinations</t>
+  </si>
+  <si>
+    <t>Given the product’s cost @  $250 pr unit, and a range of possible selling prices from $260 to $830, we can now predict the price point at which demand and pricing align to maximize the company's profit. Beyond this optimal price, profits begin to decline.</t>
+  </si>
+  <si>
+    <t>Findings: Power model has the smallest absolute percent error, meaning we can rely on this model for further analysis.</t>
+  </si>
+  <si>
+    <t>Findings:  the sale price of  $530 per unit is the optimal price point based on current product cost.</t>
+  </si>
+  <si>
+    <t>If the cost has changed, pricing should also be changed to optimize profit accordingly.</t>
+  </si>
+  <si>
+    <t>Step 1: finding the best model from Linear, Power, Exponential models.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -314,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +356,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -370,12 +387,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -419,6 +437,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
     </xf>
@@ -429,7 +453,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -437,11 +461,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -558,7 +582,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Price vs Demand Model Demonstration</a:t>
+              <a:t>Price vs Demand Modeling</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -594,7 +618,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5191905359656128E-2"/>
+          <c:y val="8.0088673152417633E-2"/>
+          <c:w val="0.89124931847287203"/>
+          <c:h val="0.7232276543283449"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -603,7 +637,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Demand_vs_Price_Modeling (2)'!$C$7</c:f>
+              <c:f>Demand_vs_Price_Modeling!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -840,7 +874,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Demand_vs_Price_Modeling (2)'!$B$8:$B$19</c:f>
+              <c:f>Demand_vs_Price_Modeling!$B$8:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -885,7 +919,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Demand_vs_Price_Modeling (2)'!$C$8:$C$19</c:f>
+              <c:f>Demand_vs_Price_Modeling!$C$8:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1340,7 +1374,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Demand_vs_Price_Modeling (2)'!$E$48:$E$105</c:f>
+              <c:f>Demand_vs_Price_Modeling!$E$49:$E$106</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="58"/>
@@ -1523,7 +1557,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Demand_vs_Price_Modeling (2)'!$F$48:$F$105</c:f>
+              <c:f>Demand_vs_Price_Modeling!$F$49:$F$106</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="58"/>
@@ -3117,16 +3151,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3157,13 +3191,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3515,10 +3549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D91581D-7FAD-4A21-8BC3-45D39DF629F5}">
-  <dimension ref="A1:S170"/>
+  <dimension ref="A1:S171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="O176" sqref="O176"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3527,7 +3561,7 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
@@ -3536,51 +3570,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="A1" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+    </row>
+    <row r="2" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24"/>
@@ -3589,7 +3623,7 @@
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -3597,13 +3631,22 @@
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>30</v>
+      <c r="E7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3616,6 +3659,17 @@
       <c r="C8">
         <v>45</v>
       </c>
+      <c r="D8">
+        <f>B8*C8*100</f>
+        <v>2025000</v>
+      </c>
+      <c r="E8">
+        <v>250</v>
+      </c>
+      <c r="F8">
+        <f>D8-(E8*C8*100)</f>
+        <v>900000</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3627,6 +3681,17 @@
       <c r="C9">
         <v>100</v>
       </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D19" si="0">B9*C9*100</f>
+        <v>3000000</v>
+      </c>
+      <c r="E9">
+        <v>250</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F19" si="1">D9-(E9*C9*100)</f>
+        <v>500000</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3638,6 +3703,17 @@
       <c r="C10">
         <v>49</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2156000</v>
+      </c>
+      <c r="E10">
+        <v>250</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>931000</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3649,6 +3725,17 @@
       <c r="C11">
         <v>86</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3010000</v>
+      </c>
+      <c r="E11">
+        <v>250</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>860000</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3660,6 +3747,17 @@
       <c r="C12">
         <v>125</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3625000</v>
+      </c>
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3671,6 +3769,17 @@
       <c r="C13">
         <v>52</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2340000</v>
+      </c>
+      <c r="E13">
+        <v>250</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1040000</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3682,6 +3791,17 @@
       <c r="C14">
         <v>87</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2958000</v>
+      </c>
+      <c r="E14">
+        <v>250</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>783000</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3693,6 +3813,17 @@
       <c r="C15">
         <v>68</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2516000</v>
+      </c>
+      <c r="E15">
+        <v>250</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>816000</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3704,6 +3835,17 @@
       <c r="C16">
         <v>45</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2250000</v>
+      </c>
+      <c r="E16">
+        <v>250</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1125000</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -3715,6 +3857,17 @@
       <c r="C17">
         <v>44</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2156000</v>
+      </c>
+      <c r="E17">
+        <v>250</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1056000</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -3726,6 +3879,17 @@
       <c r="C18">
         <v>58</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2494000</v>
+      </c>
+      <c r="E18">
+        <v>250</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1044000</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -3737,925 +3901,943 @@
       <c r="C19">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>2652000</v>
+      </c>
+      <c r="E19">
+        <v>250</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>952000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20">
+        <f>SUM(C8:C19)</f>
+        <v>827</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D8:D19)</f>
+        <v>31182000</v>
+      </c>
+      <c r="F20" s="41">
+        <f>SUM(F8:F19)</f>
+        <v>10507000</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>13</v>
+      <c r="A22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="16">
-        <v>207.46</v>
+        <v>5</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="16">
-        <v>4827406.32</v>
+        <v>8</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="16">
-        <v>448.02</v>
+        <v>12</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="16">
+        <v>207.46</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="16">
+        <v>4827406.32</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="16">
+        <v>448.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B25" s="16">
         <v>-0.34639999999999999</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="16">
         <v>-1.88</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F25" s="16">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="15" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="E28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>450</v>
-      </c>
-      <c r="B28" s="6">
-        <f>$B$24*A28+$B$23</f>
-        <v>51.580000000000013</v>
-      </c>
-      <c r="C28" s="6">
-        <f>$D$23*A28^$D$24</f>
-        <v>49.622007355502234</v>
-      </c>
-      <c r="D28" s="6">
-        <f>$F$23*EXP($F$24*A28)</f>
-        <v>47.220960588206459</v>
-      </c>
-      <c r="E28" s="11">
-        <v>45</v>
-      </c>
-      <c r="F28" s="9">
-        <f>ABS(B28-E28)/E28</f>
-        <v>0.1462222222222225</v>
-      </c>
-      <c r="G28" s="9">
-        <f>ABS(C28-E28)/E28</f>
-        <v>0.1027112745667163</v>
-      </c>
-      <c r="H28" s="9">
-        <f>ABS(D28-E28)/E28</f>
-        <v>4.935467973792132E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="B29" s="6">
-        <f t="shared" ref="B29:B39" si="0">$B$24*A29+$B$23</f>
-        <v>103.54</v>
+        <f>$B$25*A29+$B$24</f>
+        <v>51.580000000000013</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" ref="C29:C39" si="1">$D$23*A29^$D$24</f>
-        <v>106.34715981305474</v>
+        <f>$D$24*A29^$D$25</f>
+        <v>49.622007355502234</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" ref="D29:D39" si="2">$F$23*EXP($F$24*A29)</f>
-        <v>99.96677434969952</v>
+        <f>$F$24*EXP($F$25*A29)</f>
+        <v>47.220960588206459</v>
       </c>
       <c r="E29" s="11">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" ref="F29:F39" si="3">ABS(B29-E29)/E29</f>
-        <v>3.5400000000000063E-2</v>
+        <f>ABS(B29-E29)/E29</f>
+        <v>0.1462222222222225</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" ref="G29:G39" si="4">ABS(C29-E29)/E29</f>
-        <v>6.3471598130547452E-2</v>
+        <f>ABS(C29-E29)/E29</f>
+        <v>0.1027112745667163</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" ref="H29:H39" si="5">ABS(D29-E29)/E29</f>
-        <v>3.3225650300479972E-4</v>
+        <f>ABS(D29-E29)/E29</f>
+        <v>4.935467973792132E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="B30" s="6">
-        <f t="shared" si="0"/>
-        <v>55.044000000000011</v>
+        <f t="shared" ref="B30:B40" si="2">$B$25*A30+$B$24</f>
+        <v>103.54</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="1"/>
-        <v>51.763403374295862</v>
+        <f t="shared" ref="C30:C40" si="3">$D$24*A30^$D$25</f>
+        <v>106.34715981305474</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="2"/>
-        <v>49.642031009492818</v>
+        <f t="shared" ref="D30:D40" si="4">$F$24*EXP($F$25*A30)</f>
+        <v>99.96677434969952</v>
       </c>
       <c r="E30" s="11">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="3"/>
-        <v>0.12334693877551044</v>
+        <f t="shared" ref="F30:F40" si="5">ABS(B30-E30)/E30</f>
+        <v>3.5400000000000063E-2</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="4"/>
-        <v>5.63959872305278E-2</v>
+        <f t="shared" ref="G30:G40" si="6">ABS(C30-E30)/E30</f>
+        <v>6.3471598130547452E-2</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="5"/>
-        <v>1.3102673663118741E-2</v>
+        <f t="shared" ref="H30:H40" si="7">ABS(D30-E30)/E30</f>
+        <v>3.3225650300479972E-4</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="B31" s="6">
-        <f t="shared" si="0"/>
-        <v>86.220000000000013</v>
+        <f t="shared" si="2"/>
+        <v>55.044000000000011</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="1"/>
-        <v>79.591361029327103</v>
+        <f t="shared" si="3"/>
+        <v>51.763403374295862</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="2"/>
-        <v>77.854202144668434</v>
+        <f t="shared" si="4"/>
+        <v>49.642031009492818</v>
       </c>
       <c r="E31" s="11">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="3"/>
-        <v>2.5581395348838729E-3</v>
+        <f t="shared" si="5"/>
+        <v>0.12334693877551044</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" si="4"/>
-        <v>7.4519057798522054E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.63959872305278E-2</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="5"/>
-        <v>9.4718579713157738E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.3102673663118741E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="B32" s="6">
-        <f t="shared" si="0"/>
-        <v>107.00400000000002</v>
+        <f t="shared" si="2"/>
+        <v>86.220000000000013</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="1"/>
-        <v>113.34584868330299</v>
+        <f t="shared" si="3"/>
+        <v>79.591361029327103</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="2"/>
-        <v>105.09218047178322</v>
+        <f t="shared" si="4"/>
+        <v>77.854202144668434</v>
       </c>
       <c r="E32" s="11">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="3"/>
-        <v>0.14396799999999985</v>
+        <f t="shared" si="5"/>
+        <v>2.5581395348838729E-3</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" si="4"/>
-        <v>9.3233210533576083E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.4519057798522054E-2</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="5"/>
-        <v>0.15926255622573421</v>
+        <f t="shared" si="7"/>
+        <v>9.4718579713157738E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="B33" s="6">
-        <f t="shared" si="0"/>
-        <v>51.580000000000013</v>
+        <f t="shared" si="2"/>
+        <v>107.00400000000002</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" si="1"/>
-        <v>49.622007355502234</v>
+        <f t="shared" si="3"/>
+        <v>113.34584868330299</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="2"/>
-        <v>47.220960588206459</v>
+        <f t="shared" si="4"/>
+        <v>105.09218047178322</v>
       </c>
       <c r="E33" s="11">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="3"/>
-        <v>8.0769230769228359E-3</v>
+        <f t="shared" si="5"/>
+        <v>0.14396799999999985</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="4"/>
-        <v>4.5730627778803198E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.3233210533576083E-2</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="5"/>
-        <v>9.19046040729527E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.15926255622573421</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="B34" s="6">
-        <f t="shared" si="0"/>
-        <v>89.684000000000012</v>
+        <f t="shared" si="2"/>
+        <v>51.580000000000013</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" si="1"/>
-        <v>84.049181915520563</v>
+        <f t="shared" si="3"/>
+        <v>49.622007355502234</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="2"/>
-        <v>81.845872446106185</v>
+        <f t="shared" si="4"/>
+        <v>47.220960588206459</v>
       </c>
       <c r="E34" s="11">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" si="3"/>
-        <v>3.0850574712643814E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.0769230769228359E-3</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="4"/>
-        <v>3.391744924689008E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.5730627778803198E-2</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="5"/>
-        <v>5.9242845447055346E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.19046040729527E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="B35" s="6">
-        <f t="shared" si="0"/>
-        <v>79.292000000000002</v>
+        <f t="shared" si="2"/>
+        <v>89.684000000000012</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" si="1"/>
-        <v>71.695948304578621</v>
+        <f t="shared" si="3"/>
+        <v>84.049181915520563</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="2"/>
-        <v>70.445395251831442</v>
+        <f t="shared" si="4"/>
+        <v>81.845872446106185</v>
       </c>
       <c r="E35" s="11">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F35" s="9">
-        <f t="shared" si="3"/>
-        <v>0.16605882352941179</v>
+        <f t="shared" si="5"/>
+        <v>3.0850574712643814E-2</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" si="4"/>
-        <v>5.4352180949685608E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.391744924689008E-2</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" si="5"/>
-        <v>3.5961694879874155E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.9242845447055346E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="B36" s="6">
-        <f t="shared" si="0"/>
-        <v>34.260000000000019</v>
+        <f t="shared" si="2"/>
+        <v>79.292000000000002</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" si="1"/>
-        <v>40.705233140487572</v>
+        <f t="shared" si="3"/>
+        <v>71.695948304578621</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="2"/>
-        <v>36.775721083479141</v>
+        <f t="shared" si="4"/>
+        <v>70.445395251831442</v>
       </c>
       <c r="E36" s="11">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F36" s="9">
-        <f t="shared" si="3"/>
-        <v>0.23866666666666625</v>
+        <f t="shared" si="5"/>
+        <v>0.16605882352941179</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" si="4"/>
-        <v>9.5439263544720626E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.4352180949685608E-2</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" si="5"/>
-        <v>0.18276175370046355</v>
+        <f t="shared" si="7"/>
+        <v>3.5961694879874155E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="B37" s="6">
-        <f t="shared" si="0"/>
-        <v>37.724000000000018</v>
+        <f t="shared" si="2"/>
+        <v>34.260000000000019</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" si="1"/>
-        <v>42.280997453126702</v>
+        <f t="shared" si="3"/>
+        <v>40.705233140487572</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="2"/>
-        <v>38.661252623447965</v>
+        <f t="shared" si="4"/>
+        <v>36.775721083479141</v>
       </c>
       <c r="E37" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" s="9">
-        <f t="shared" si="3"/>
-        <v>0.14263636363636323</v>
+        <f t="shared" si="5"/>
+        <v>0.23866666666666625</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="4"/>
-        <v>3.9068239701665869E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.5439263544720626E-2</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="5"/>
-        <v>0.12133516764890989</v>
+        <f t="shared" si="7"/>
+        <v>0.18276175370046355</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="B38" s="6">
-        <f t="shared" si="0"/>
-        <v>58.50800000000001</v>
+        <f t="shared" si="2"/>
+        <v>37.724000000000018</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="1"/>
-        <v>54.049683872701543</v>
+        <f t="shared" si="3"/>
+        <v>42.280997453126702</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="2"/>
-        <v>52.187232365682107</v>
+        <f t="shared" si="4"/>
+        <v>38.661252623447965</v>
       </c>
       <c r="E38" s="11">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" si="3"/>
-        <v>8.7586206896553415E-3</v>
+        <f t="shared" si="5"/>
+        <v>0.14263636363636323</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="4"/>
-        <v>6.8108898746525121E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.9068239701665869E-2</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="5"/>
-        <v>0.10022013162617058</v>
+        <f t="shared" si="7"/>
+        <v>0.12133516764890989</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
+        <v>430</v>
+      </c>
+      <c r="B39" s="6">
+        <f t="shared" si="2"/>
+        <v>58.50800000000001</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="3"/>
+        <v>54.049683872701543</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="4"/>
+        <v>52.187232365682107</v>
+      </c>
+      <c r="E39" s="11">
+        <v>58</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="5"/>
+        <v>8.7586206896553415E-3</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="6"/>
+        <v>6.8108898746525121E-2</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="7"/>
+        <v>0.10022013162617058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>390</v>
       </c>
-      <c r="B39" s="6">
-        <f t="shared" si="0"/>
+      <c r="B40" s="6">
+        <f t="shared" si="2"/>
         <v>72.364000000000004</v>
       </c>
-      <c r="C39" s="6">
-        <f t="shared" si="1"/>
+      <c r="C40" s="6">
+        <f t="shared" si="3"/>
         <v>64.940016324612344</v>
       </c>
-      <c r="D39" s="6">
-        <f t="shared" si="2"/>
+      <c r="D40" s="6">
+        <f t="shared" si="4"/>
         <v>63.741629552189814</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>68</v>
       </c>
-      <c r="F39" s="9">
-        <f t="shared" si="3"/>
+      <c r="F40" s="9">
+        <f t="shared" si="5"/>
         <v>6.4176470588235363E-2</v>
       </c>
-      <c r="G39" s="9">
-        <f t="shared" si="4"/>
+      <c r="G40" s="9">
+        <f t="shared" si="6"/>
         <v>4.499975993217141E-2</v>
       </c>
-      <c r="H39" s="9">
-        <f t="shared" si="5"/>
+      <c r="H40" s="9">
+        <f t="shared" si="7"/>
         <v>6.2623094820738037E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E40" s="8" t="s">
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="7">
-        <f>AVERAGE(F28:F39)</f>
+      <c r="F41" s="7">
+        <f>AVERAGE(F29:F40)</f>
         <v>9.2559978619376274E-2</v>
       </c>
-      <c r="G40" s="10">
-        <f>AVERAGE(G28:G39)</f>
+      <c r="G41" s="10">
+        <f>AVERAGE(G29:G40)</f>
         <v>6.4328962346695981E-2</v>
       </c>
-      <c r="H40" s="7">
-        <f>AVERAGE(H28:H39)</f>
+      <c r="H41" s="7">
+        <f>AVERAGE(H29:H40)</f>
         <v>8.090166983659175E-2</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I41" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="21"/>
-    </row>
     <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="7"/>
       <c r="G42" s="22"/>
       <c r="H42" s="7"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>34</v>
-      </c>
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="28">
-        <v>250</v>
-      </c>
-      <c r="C46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" t="s">
-        <v>24</v>
-      </c>
+      <c r="A44" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="13">
-        <v>530</v>
+        <v>21</v>
+      </c>
+      <c r="B47" s="28">
+        <v>250</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="12">
-        <f>B53</f>
-        <v>1021487.9578300315</v>
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="31">
-        <f>D23*B47^D24</f>
+        <v>4</v>
+      </c>
+      <c r="B48" s="13">
+        <v>530</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="12">
+        <f>B54</f>
+        <v>1021487.9578300315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="31">
+        <f>D24*B48^D25</f>
         <v>36.481712779643985</v>
-      </c>
-      <c r="C48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="1">
-        <v>260</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="dataTable" ref="F48:F82" dt2D="0" dtr="0" r1="B47" ca="1"/>
-        <v>139175.87502775947</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="32">
-        <f>B48*100</f>
-        <v>3648.1712779643985</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="1">
+        <v>260</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="dataTable" ref="F49:F83" dt2D="0" dtr="0" r1="B48"/>
+        <v>139175.87502775947</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="32">
+        <f>B49*100</f>
+        <v>3648.1712779643985</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="1">
         <v>270</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F50" s="1">
         <v>259286.54078785935</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="1">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1">
         <v>280</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <v>363226.905250757</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2">
-        <f>B49*B46</f>
-        <v>912042.81949109968</v>
-      </c>
-      <c r="C51" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B51)</f>
-        <v>=B49*B46</v>
-      </c>
-      <c r="E51" s="1">
-        <v>290</v>
-      </c>
-      <c r="F51" s="1">
-        <v>453383.39473321196</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" s="2">
-        <f>B49*B47</f>
-        <v>1933530.7773211312</v>
+        <f>B50*B47</f>
+        <v>912042.81949109968</v>
       </c>
       <c r="C52" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B52)</f>
-        <v>=B49*B47</v>
+        <v>=B50*B47</v>
       </c>
       <c r="E52" s="1">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F52" s="1">
-        <v>531735.79906527372</v>
+        <v>453383.39473321196</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="2">
-        <f>B52-B51</f>
-        <v>1021487.9578300315</v>
+        <f>B50*B48</f>
+        <v>1933530.7773211312</v>
       </c>
       <c r="C53" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B53)</f>
-        <v>=B52-B51</v>
+        <v>=B50*B48</v>
       </c>
       <c r="E53" s="1">
+        <v>300</v>
+      </c>
+      <c r="F53" s="1">
+        <v>531735.79906527372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2">
+        <f>B53-B52</f>
+        <v>1021487.9578300315</v>
+      </c>
+      <c r="C54" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B54)</f>
+        <v>=B53-B52</v>
+      </c>
+      <c r="E54" s="1">
         <v>310</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F54" s="1">
         <v>599936.27279943321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="1">
-        <v>320</v>
-      </c>
-      <c r="F54" s="1">
-        <v>659371.14128662832</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E55" s="1">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F55" s="1">
-        <v>711209.64016903192</v>
+        <v>659371.14128662832</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E56" s="1">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F56" s="1">
-        <v>756442.63723968528</v>
+        <v>711209.64016903192</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E57" s="1">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F57" s="1">
-        <v>795913.61029327102</v>
+        <v>756442.63723968528</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E58" s="1">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F58" s="1">
-        <v>830343.59190360014</v>
+        <v>795913.61029327102</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E59" s="1">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F59" s="1">
-        <v>860351.37965494348</v>
+        <v>830343.59190360014</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E60" s="1">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F60" s="1">
-        <v>886470.00528350379</v>
+        <v>860351.37965494348</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E61" s="1">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F61" s="1">
-        <v>909160.22854457307</v>
+        <v>886470.00528350379</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E62" s="1">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F62" s="1">
-        <v>928821.65035988763</v>
+        <v>909160.22854457307</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E63" s="1">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F63" s="1">
-        <v>945801.90995445382</v>
+        <v>928821.65035988763</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E64" s="1">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F64" s="1">
-        <v>960404.33152393973</v>
+        <v>945801.90995445382</v>
       </c>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E65" s="1">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F65" s="1">
-        <v>972894.30970862787</v>
+        <v>960404.33152393973</v>
       </c>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E66" s="1">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F66" s="1">
-        <v>983504.66411162145</v>
-      </c>
-      <c r="H66" s="2">
-        <f>MAX(F48:F105)</f>
-        <v>1021487.9578300315</v>
+        <v>972894.30970862787</v>
       </c>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E67" s="1">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F67" s="1">
-        <v>992440.14711004472</v>
+        <v>983504.66411162145</v>
+      </c>
+      <c r="H67" s="2">
+        <f>MAX(F49:F106)</f>
+        <v>1021487.9578300315</v>
       </c>
     </row>
     <row r="68" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E68" s="1">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F68" s="1">
-        <v>999881.25317107816</v>
+        <v>992440.14711004472</v>
       </c>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E69" s="1">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="F69" s="1">
-        <v>1005987.4494859097</v>
+        <v>999881.25317107816</v>
       </c>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E70" s="1">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F70" s="1">
-        <v>1010899.925234477</v>
+        <v>1005987.4494859097</v>
       </c>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E71" s="1">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F71" s="1">
-        <v>1014743.9388750407</v>
+        <v>1010899.925234477</v>
       </c>
     </row>
     <row r="72" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E72" s="1">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="F72" s="1">
-        <v>1017630.8285121893</v>
+        <v>1014743.9388750407</v>
       </c>
     </row>
     <row r="73" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E73" s="1">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F73" s="1">
-        <v>1019659.7388661277</v>
+        <v>1017630.8285121893</v>
       </c>
     </row>
     <row r="74" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E74" s="1">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F74" s="1">
-        <v>1020919.1090528421</v>
+        <v>1019659.7388661277</v>
       </c>
     </row>
     <row r="75" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E75" s="1">
-        <v>530</v>
-      </c>
-      <c r="F75" s="13">
-        <v>1021487.9578300315</v>
+        <v>520</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1020919.1090528421</v>
       </c>
     </row>
     <row r="76" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E76" s="1">
-        <v>540</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1021436.9968100728</v>
+        <v>530</v>
+      </c>
+      <c r="F76" s="13">
+        <v>1021487.9578300315</v>
       </c>
     </row>
     <row r="77" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E77" s="1">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F77" s="1">
-        <v>1020829.5971091248</v>
+        <v>1021436.9968100728</v>
       </c>
     </row>
     <row r="78" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E78" s="1">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F78" s="1">
-        <v>1019722.6307705705</v>
+        <v>1020829.5971091248</v>
       </c>
     </row>
     <row r="79" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E79" s="1">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F79" s="1">
-        <v>1018167.2048975942</v>
+        <v>1019722.6307705705</v>
       </c>
     </row>
     <row r="80" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E80" s="1">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F80" s="1">
-        <v>1016209.303615676</v>
+        <v>1018167.2048975942</v>
       </c>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81" s="1">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F81" s="1">
-        <v>1013890.3506513374</v>
+        <v>1016209.303615676</v>
       </c>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82" s="1">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F82" s="1">
-        <v>1011247.7033704214</v>
+        <v>1013890.3506513374</v>
       </c>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83" s="1">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F83" s="1">
-        <v>1011247.6363366472</v>
+        <v>1011247.7033704214</v>
       </c>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" s="1">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F84" s="1">
         <v>1011247.6363366472</v>
@@ -4663,7 +4845,7 @@
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E85" s="1">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F85" s="1">
         <v>1011247.6363366472</v>
@@ -4671,7 +4853,7 @@
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86" s="1">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="F86" s="1">
         <v>1011247.6363366472</v>
@@ -4679,7 +4861,7 @@
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87" s="1">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F87" s="1">
         <v>1011247.6363366472</v>
@@ -4687,7 +4869,7 @@
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88" s="1">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="F88" s="1">
         <v>1011247.6363366472</v>
@@ -4695,7 +4877,7 @@
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E89" s="1">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="F89" s="1">
         <v>1011247.6363366472</v>
@@ -4703,7 +4885,7 @@
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E90" s="1">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="F90" s="1">
         <v>1011247.6363366472</v>
@@ -4711,7 +4893,7 @@
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E91" s="1">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="F91" s="1">
         <v>1011247.6363366472</v>
@@ -4719,7 +4901,7 @@
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E92" s="1">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="F92" s="1">
         <v>1011247.6363366472</v>
@@ -4727,7 +4909,7 @@
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E93" s="1">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F93" s="1">
         <v>1011247.6363366472</v>
@@ -4735,7 +4917,7 @@
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E94" s="1">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="F94" s="1">
         <v>1011247.6363366472</v>
@@ -4743,7 +4925,7 @@
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E95" s="1">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="F95" s="1">
         <v>1011247.6363366472</v>
@@ -4751,7 +4933,7 @@
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E96" s="1">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F96" s="1">
         <v>1011247.6363366472</v>
@@ -4759,7 +4941,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E97" s="1">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="F97" s="1">
         <v>1011247.6363366472</v>
@@ -4767,7 +4949,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E98" s="1">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="F98" s="1">
         <v>1011247.6363366472</v>
@@ -4775,7 +4957,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E99" s="1">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="F99" s="1">
         <v>1011247.6363366472</v>
@@ -4783,7 +4965,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E100" s="1">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="F100" s="1">
         <v>1011247.6363366472</v>
@@ -4791,7 +4973,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E101" s="1">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="F101" s="1">
         <v>1011247.6363366472</v>
@@ -4799,7 +4981,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E102" s="1">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="F102" s="1">
         <v>1011247.6363366472</v>
@@ -4807,7 +4989,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E103" s="1">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="F103" s="1">
         <v>1011247.6363366472</v>
@@ -4815,7 +4997,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E104" s="1">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="F104" s="1">
         <v>1011247.6363366472</v>
@@ -4823,137 +5005,115 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E105" s="1">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="F105" s="1">
         <v>1011247.6363366472</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E107" s="38" t="s">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E106" s="1">
+        <v>830</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1011247.6363366472</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E108" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D108" s="12">
-        <f>B53</f>
+      <c r="F108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D109" s="12">
+        <f>B54</f>
         <v>1021487.9578300315</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E109" s="1">
         <v>250</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F109" s="1">
         <v>300</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G109" s="1">
         <v>350</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H109" s="1">
         <v>400</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I109" s="1">
         <v>450</v>
       </c>
-      <c r="M108" s="39"/>
-      <c r="N108" s="39"/>
-      <c r="O108" s="39"/>
-      <c r="P108" s="39"/>
-      <c r="Q108" s="39"/>
-      <c r="R108" s="39"/>
-      <c r="S108" s="39"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C109" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D109">
+      <c r="M109" s="34"/>
+      <c r="N109" s="34"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
+      <c r="Q109" s="34"/>
+      <c r="R109" s="34"/>
+      <c r="S109" s="34"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C110" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110">
         <v>260</v>
       </c>
-      <c r="E109" s="3">
-        <f t="dataTable" ref="E109:I166" dt2D="1" dtr="1" r1="B46" r2="B47"/>
+      <c r="E110" s="3">
+        <f t="dataTable" ref="E110:I167" dt2D="1" dtr="1" r1="B47" r2="B48" ca="1"/>
         <v>139175.87502775947</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F110" s="3">
         <v>-556703.5001110374</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G110" s="3">
         <v>-1252582.8752498347</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H110" s="3">
         <v>-1948462.2503886316</v>
       </c>
-      <c r="I109" s="3">
+      <c r="I110" s="3">
         <v>-2644341.6255274285</v>
       </c>
-      <c r="L109" s="12"/>
-      <c r="M109" s="26"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="26"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C110" s="33"/>
-      <c r="D110">
+      <c r="L110" s="12"/>
+      <c r="M110" s="26"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="26"/>
+      <c r="P110" s="26"/>
+      <c r="Q110" s="26"/>
+      <c r="R110" s="26"/>
+      <c r="S110" s="26"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C111" s="35"/>
+      <c r="D111">
         <v>270</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E111" s="3">
         <v>259286.54078785935</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F111" s="3">
         <v>-388929.8111817888</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G111" s="3">
         <v>-1037146.1631514365</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H111" s="3">
         <v>-1685362.5151210846</v>
       </c>
-      <c r="I110" s="3">
+      <c r="I111" s="3">
         <v>-2333578.8670907328</v>
       </c>
-      <c r="K110" s="34"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="27"/>
-      <c r="N110" s="27"/>
-      <c r="O110" s="27"/>
-      <c r="P110" s="27"/>
-      <c r="Q110" s="27"/>
-      <c r="R110" s="27"/>
-      <c r="S110" s="27"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C111" s="33"/>
-      <c r="D111">
-        <v>280</v>
-      </c>
-      <c r="E111" s="3">
-        <v>363226.905250757</v>
-      </c>
-      <c r="F111" s="3">
-        <v>-242151.27016717102</v>
-      </c>
-      <c r="G111" s="3">
-        <v>-847529.44558509951</v>
-      </c>
-      <c r="H111" s="3">
-        <v>-1452907.6210030275</v>
-      </c>
-      <c r="I111" s="3">
-        <v>-2058285.7964209556</v>
-      </c>
-      <c r="K111" s="34"/>
+      <c r="K111" s="36"/>
       <c r="L111" s="17"/>
       <c r="M111" s="27"/>
       <c r="N111" s="27"/>
@@ -4964,26 +5124,26 @@
       <c r="S111" s="27"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C112" s="33"/>
+      <c r="C112" s="35"/>
       <c r="D112">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E112" s="3">
-        <v>453383.39473321196</v>
+        <v>363226.905250757</v>
       </c>
       <c r="F112" s="3">
-        <v>-113345.84868330276</v>
+        <v>-242151.27016717102</v>
       </c>
       <c r="G112" s="3">
-        <v>-680075.09209981794</v>
+        <v>-847529.44558509951</v>
       </c>
       <c r="H112" s="3">
-        <v>-1246804.3355163326</v>
+        <v>-1452907.6210030275</v>
       </c>
       <c r="I112" s="3">
-        <v>-1813533.5789328478</v>
-      </c>
-      <c r="K112" s="34"/>
+        <v>-2058285.7964209556</v>
+      </c>
+      <c r="K112" s="36"/>
       <c r="L112" s="17"/>
       <c r="M112" s="27"/>
       <c r="N112" s="27"/>
@@ -4994,26 +5154,26 @@
       <c r="S112" s="27"/>
     </row>
     <row r="113" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C113" s="33"/>
+      <c r="C113" s="35"/>
       <c r="D113">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E113" s="3">
-        <v>531735.79906527372</v>
+        <v>453383.39473321196</v>
       </c>
       <c r="F113" s="3">
-        <v>0</v>
+        <v>-113345.84868330276</v>
       </c>
       <c r="G113" s="3">
-        <v>-531735.79906527372</v>
+        <v>-680075.09209981794</v>
       </c>
       <c r="H113" s="3">
-        <v>-1063471.5981305474</v>
+        <v>-1246804.3355163326</v>
       </c>
       <c r="I113" s="3">
-        <v>-1595207.3971958216</v>
-      </c>
-      <c r="K113" s="34"/>
+        <v>-1813533.5789328478</v>
+      </c>
+      <c r="K113" s="36"/>
       <c r="L113" s="17"/>
       <c r="M113" s="27"/>
       <c r="N113" s="27"/>
@@ -5024,26 +5184,26 @@
       <c r="S113" s="27"/>
     </row>
     <row r="114" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C114" s="33"/>
+      <c r="C114" s="35"/>
       <c r="D114">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E114" s="3">
-        <v>599936.27279943321</v>
+        <v>531735.79906527372</v>
       </c>
       <c r="F114" s="3">
-        <v>99989.378799905535</v>
+        <v>0</v>
       </c>
       <c r="G114" s="3">
-        <v>-399957.51519962214</v>
+        <v>-531735.79906527372</v>
       </c>
       <c r="H114" s="3">
-        <v>-899904.40919914981</v>
+        <v>-1063471.5981305474</v>
       </c>
       <c r="I114" s="3">
-        <v>-1399851.303198678</v>
-      </c>
-      <c r="K114" s="34"/>
+        <v>-1595207.3971958216</v>
+      </c>
+      <c r="K114" s="36"/>
       <c r="L114" s="17"/>
       <c r="M114" s="27"/>
       <c r="N114" s="27"/>
@@ -5054,26 +5214,26 @@
       <c r="S114" s="27"/>
     </row>
     <row r="115" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C115" s="33"/>
+      <c r="C115" s="35"/>
       <c r="D115">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E115" s="3">
-        <v>659371.14128662832</v>
+        <v>599936.27279943321</v>
       </c>
       <c r="F115" s="3">
-        <v>188391.75465332251</v>
+        <v>99989.378799905535</v>
       </c>
       <c r="G115" s="3">
-        <v>-282587.63197998377</v>
+        <v>-399957.51519962214</v>
       </c>
       <c r="H115" s="3">
-        <v>-753567.01861328958</v>
+        <v>-899904.40919914981</v>
       </c>
       <c r="I115" s="3">
-        <v>-1224546.4052465954</v>
-      </c>
-      <c r="K115" s="34"/>
+        <v>-1399851.303198678</v>
+      </c>
+      <c r="K115" s="36"/>
       <c r="L115" s="17"/>
       <c r="M115" s="27"/>
       <c r="N115" s="27"/>
@@ -5084,26 +5244,26 @@
       <c r="S115" s="27"/>
     </row>
     <row r="116" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C116" s="33"/>
+      <c r="C116" s="35"/>
       <c r="D116">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E116" s="3">
-        <v>711209.64016903192</v>
+        <v>659371.14128662832</v>
       </c>
       <c r="F116" s="3">
-        <v>266703.61506338697</v>
+        <v>188391.75465332251</v>
       </c>
       <c r="G116" s="3">
-        <v>-177802.41004225798</v>
+        <v>-282587.63197998377</v>
       </c>
       <c r="H116" s="3">
-        <v>-622308.43514790339</v>
+        <v>-753567.01861328958</v>
       </c>
       <c r="I116" s="3">
-        <v>-1066814.4602535483</v>
-      </c>
-      <c r="K116" s="34"/>
+        <v>-1224546.4052465954</v>
+      </c>
+      <c r="K116" s="36"/>
       <c r="L116" s="17"/>
       <c r="M116" s="27"/>
       <c r="N116" s="27"/>
@@ -5114,26 +5274,26 @@
       <c r="S116" s="27"/>
     </row>
     <row r="117" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C117" s="33"/>
+      <c r="C117" s="35"/>
       <c r="D117">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E117" s="3">
-        <v>756442.63723968528</v>
+        <v>711209.64016903192</v>
       </c>
       <c r="F117" s="3">
-        <v>336196.7276620823</v>
+        <v>266703.61506338697</v>
       </c>
       <c r="G117" s="3">
-        <v>-84049.18191552069</v>
+        <v>-177802.41004225798</v>
       </c>
       <c r="H117" s="3">
-        <v>-504295.09149312321</v>
+        <v>-622308.43514790339</v>
       </c>
       <c r="I117" s="3">
-        <v>-924541.0010707262</v>
-      </c>
-      <c r="K117" s="34"/>
+        <v>-1066814.4602535483</v>
+      </c>
+      <c r="K117" s="36"/>
       <c r="L117" s="17"/>
       <c r="M117" s="27"/>
       <c r="N117" s="27"/>
@@ -5144,26 +5304,26 @@
       <c r="S117" s="27"/>
     </row>
     <row r="118" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C118" s="33"/>
+      <c r="C118" s="35"/>
       <c r="D118">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E118" s="3">
-        <v>795913.61029327102</v>
+        <v>756442.63723968528</v>
       </c>
       <c r="F118" s="3">
-        <v>397956.80514663551</v>
+        <v>336196.7276620823</v>
       </c>
       <c r="G118" s="3">
-        <v>0</v>
+        <v>-84049.18191552069</v>
       </c>
       <c r="H118" s="3">
-        <v>-397956.80514663551</v>
+        <v>-504295.09149312321</v>
       </c>
       <c r="I118" s="3">
-        <v>-795913.61029327102</v>
-      </c>
-      <c r="K118" s="34"/>
+        <v>-924541.0010707262</v>
+      </c>
+      <c r="K118" s="36"/>
       <c r="L118" s="17"/>
       <c r="M118" s="27"/>
       <c r="N118" s="27"/>
@@ -5174,26 +5334,26 @@
       <c r="S118" s="27"/>
     </row>
     <row r="119" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C119" s="33"/>
+      <c r="C119" s="35"/>
       <c r="D119">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E119" s="3">
-        <v>830343.59190360014</v>
+        <v>795913.61029327102</v>
       </c>
       <c r="F119" s="3">
-        <v>452914.68649287289</v>
+        <v>397956.80514663551</v>
       </c>
       <c r="G119" s="3">
-        <v>75485.78108214587</v>
+        <v>0</v>
       </c>
       <c r="H119" s="3">
-        <v>-301943.12432858162</v>
+        <v>-397956.80514663551</v>
       </c>
       <c r="I119" s="3">
-        <v>-679372.02973930864</v>
-      </c>
-      <c r="K119" s="34"/>
+        <v>-795913.61029327102</v>
+      </c>
+      <c r="K119" s="36"/>
       <c r="L119" s="17"/>
       <c r="M119" s="27"/>
       <c r="N119" s="27"/>
@@ -5204,26 +5364,26 @@
       <c r="S119" s="27"/>
     </row>
     <row r="120" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C120" s="33"/>
+      <c r="C120" s="35"/>
       <c r="D120">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E120" s="3">
-        <v>860351.37965494348</v>
+        <v>830343.59190360014</v>
       </c>
       <c r="F120" s="3">
-        <v>501871.63813205017</v>
+        <v>452914.68649287289</v>
       </c>
       <c r="G120" s="3">
-        <v>143391.89660915732</v>
+        <v>75485.78108214587</v>
       </c>
       <c r="H120" s="3">
-        <v>-215087.84491373599</v>
+        <v>-301943.12432858162</v>
       </c>
       <c r="I120" s="3">
-        <v>-573567.58643662883</v>
-      </c>
-      <c r="K120" s="34"/>
+        <v>-679372.02973930864</v>
+      </c>
+      <c r="K120" s="36"/>
       <c r="L120" s="17"/>
       <c r="M120" s="27"/>
       <c r="N120" s="27"/>
@@ -5234,26 +5394,26 @@
       <c r="S120" s="27"/>
     </row>
     <row r="121" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C121" s="33"/>
+      <c r="C121" s="35"/>
       <c r="D121">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E121" s="3">
-        <v>886470.00528350379</v>
+        <v>860351.37965494348</v>
       </c>
       <c r="F121" s="3">
-        <v>545520.00325138681</v>
+        <v>501871.63813205017</v>
       </c>
       <c r="G121" s="3">
-        <v>204570.00121926982</v>
+        <v>143391.89660915732</v>
       </c>
       <c r="H121" s="3">
-        <v>-136380.0008128467</v>
+        <v>-215087.84491373599</v>
       </c>
       <c r="I121" s="3">
-        <v>-477330.00284496369</v>
-      </c>
-      <c r="K121" s="34"/>
+        <v>-573567.58643662883</v>
+      </c>
+      <c r="K121" s="36"/>
       <c r="L121" s="17"/>
       <c r="M121" s="27"/>
       <c r="N121" s="27"/>
@@ -5264,26 +5424,26 @@
       <c r="S121" s="27"/>
     </row>
     <row r="122" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C122" s="33"/>
+      <c r="C122" s="35"/>
       <c r="D122">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E122" s="3">
-        <v>909160.22854457307</v>
+        <v>886470.00528350379</v>
       </c>
       <c r="F122" s="3">
-        <v>584460.14692151127</v>
+        <v>545520.00325138681</v>
       </c>
       <c r="G122" s="3">
-        <v>259760.06529844971</v>
+        <v>204570.00121926982</v>
       </c>
       <c r="H122" s="3">
-        <v>-64940.016324612312</v>
+        <v>-136380.0008128467</v>
       </c>
       <c r="I122" s="3">
-        <v>-389640.09794767387</v>
-      </c>
-      <c r="K122" s="34"/>
+        <v>-477330.00284496369</v>
+      </c>
+      <c r="K122" s="36"/>
       <c r="L122" s="17"/>
       <c r="M122" s="27"/>
       <c r="N122" s="27"/>
@@ -5294,26 +5454,26 @@
       <c r="S122" s="27"/>
     </row>
     <row r="123" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C123" s="33"/>
+      <c r="C123" s="35"/>
       <c r="D123">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E123" s="3">
-        <v>928821.65035988763</v>
+        <v>909160.22854457307</v>
       </c>
       <c r="F123" s="3">
-        <v>619214.43357325834</v>
+        <v>584460.14692151127</v>
       </c>
       <c r="G123" s="3">
-        <v>309607.21678662905</v>
+        <v>259760.06529844971</v>
       </c>
       <c r="H123" s="3">
-        <v>0</v>
+        <v>-64940.016324612312</v>
       </c>
       <c r="I123" s="3">
-        <v>-309607.21678662905</v>
-      </c>
-      <c r="K123" s="34"/>
+        <v>-389640.09794767387</v>
+      </c>
+      <c r="K123" s="36"/>
       <c r="L123" s="17"/>
       <c r="M123" s="27"/>
       <c r="N123" s="27"/>
@@ -5324,26 +5484,26 @@
       <c r="S123" s="27"/>
     </row>
     <row r="124" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C124" s="33"/>
+      <c r="C124" s="35"/>
       <c r="D124">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E124" s="3">
-        <v>945801.90995445382</v>
+        <v>928821.65035988763</v>
       </c>
       <c r="F124" s="3">
-        <v>650238.81309368694</v>
+        <v>619214.43357325834</v>
       </c>
       <c r="G124" s="3">
-        <v>354675.71623292007</v>
+        <v>309607.21678662905</v>
       </c>
       <c r="H124" s="3">
-        <v>59112.619372153189</v>
+        <v>0</v>
       </c>
       <c r="I124" s="3">
-        <v>-236450.47748861369</v>
-      </c>
-      <c r="K124" s="34"/>
+        <v>-309607.21678662905</v>
+      </c>
+      <c r="K124" s="36"/>
       <c r="L124" s="17"/>
       <c r="M124" s="27"/>
       <c r="N124" s="27"/>
@@ -5354,26 +5514,26 @@
       <c r="S124" s="27"/>
     </row>
     <row r="125" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C125" s="33"/>
+      <c r="C125" s="35"/>
       <c r="D125">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E125" s="3">
-        <v>960404.33152393973</v>
+        <v>945801.90995445382</v>
       </c>
       <c r="F125" s="3">
-        <v>677932.46931101638</v>
+        <v>650238.81309368694</v>
       </c>
       <c r="G125" s="3">
-        <v>395460.60709809279</v>
+        <v>354675.71623292007</v>
       </c>
       <c r="H125" s="3">
-        <v>112988.74488516944</v>
+        <v>59112.619372153189</v>
       </c>
       <c r="I125" s="3">
-        <v>-169483.11732775392</v>
-      </c>
-      <c r="K125" s="34"/>
+        <v>-236450.47748861369</v>
+      </c>
+      <c r="K125" s="36"/>
       <c r="L125" s="17"/>
       <c r="M125" s="27"/>
       <c r="N125" s="27"/>
@@ -5384,26 +5544,26 @@
       <c r="S125" s="27"/>
     </row>
     <row r="126" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C126" s="33"/>
+      <c r="C126" s="35"/>
       <c r="D126">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E126" s="3">
-        <v>972894.30970862787</v>
+        <v>960404.33152393973</v>
       </c>
       <c r="F126" s="3">
-        <v>702645.8903451201</v>
+        <v>677932.46931101638</v>
       </c>
       <c r="G126" s="3">
-        <v>432397.47098161234</v>
+        <v>395460.60709809279</v>
       </c>
       <c r="H126" s="3">
-        <v>162149.0516181048</v>
+        <v>112988.74488516944</v>
       </c>
       <c r="I126" s="3">
-        <v>-108099.3677454032</v>
-      </c>
-      <c r="K126" s="34"/>
+        <v>-169483.11732775392</v>
+      </c>
+      <c r="K126" s="36"/>
       <c r="L126" s="17"/>
       <c r="M126" s="27"/>
       <c r="N126" s="27"/>
@@ -5414,26 +5574,26 @@
       <c r="S126" s="27"/>
     </row>
     <row r="127" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C127" s="33"/>
+      <c r="C127" s="35"/>
       <c r="D127">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E127" s="3">
-        <v>983504.66411162145</v>
+        <v>972894.30970862787</v>
       </c>
       <c r="F127" s="3">
-        <v>724687.64724014211</v>
+        <v>702645.8903451201</v>
       </c>
       <c r="G127" s="3">
-        <v>465870.63036866277</v>
+        <v>432397.47098161234</v>
       </c>
       <c r="H127" s="3">
-        <v>207053.61349718366</v>
+        <v>162149.0516181048</v>
       </c>
       <c r="I127" s="3">
-        <v>-51763.403374295682</v>
-      </c>
-      <c r="K127" s="34"/>
+        <v>-108099.3677454032</v>
+      </c>
+      <c r="K127" s="36"/>
       <c r="L127" s="17"/>
       <c r="M127" s="27"/>
       <c r="N127" s="27"/>
@@ -5444,26 +5604,26 @@
       <c r="S127" s="27"/>
     </row>
     <row r="128" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C128" s="33"/>
+      <c r="C128" s="35"/>
       <c r="D128">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E128" s="3">
-        <v>992440.14711004472</v>
+        <v>983504.66411162145</v>
       </c>
       <c r="F128" s="3">
-        <v>744330.11033253348</v>
+        <v>724687.64724014211</v>
       </c>
       <c r="G128" s="3">
-        <v>496220.07355502248</v>
+        <v>465870.63036866277</v>
       </c>
       <c r="H128" s="3">
-        <v>248110.03677751124</v>
+        <v>207053.61349718366</v>
       </c>
       <c r="I128" s="3">
-        <v>0</v>
-      </c>
-      <c r="K128" s="34"/>
+        <v>-51763.403374295682</v>
+      </c>
+      <c r="K128" s="36"/>
       <c r="L128" s="17"/>
       <c r="M128" s="27"/>
       <c r="N128" s="27"/>
@@ -5474,26 +5634,26 @@
       <c r="S128" s="27"/>
     </row>
     <row r="129" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C129" s="33"/>
+      <c r="C129" s="35"/>
       <c r="D129">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="E129" s="3">
-        <v>999881.25317107816</v>
+        <v>992440.14711004472</v>
       </c>
       <c r="F129" s="3">
-        <v>761814.28813034529</v>
+        <v>744330.11033253348</v>
       </c>
       <c r="G129" s="3">
-        <v>523747.32308961242</v>
+        <v>496220.07355502248</v>
       </c>
       <c r="H129" s="3">
-        <v>285680.35804887954</v>
+        <v>248110.03677751124</v>
       </c>
       <c r="I129" s="3">
-        <v>47613.393008146435</v>
-      </c>
-      <c r="K129" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="K129" s="36"/>
       <c r="L129" s="17"/>
       <c r="M129" s="27"/>
       <c r="N129" s="27"/>
@@ -5504,26 +5664,26 @@
       <c r="S129" s="27"/>
     </row>
     <row r="130" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C130" s="33"/>
+      <c r="C130" s="35"/>
       <c r="D130">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="E130" s="3">
-        <v>1005987.4494859097</v>
+        <v>999881.25317107816</v>
       </c>
       <c r="F130" s="3">
-        <v>777353.93823911203</v>
+        <v>761814.28813034529</v>
       </c>
       <c r="G130" s="3">
-        <v>548720.4269923144</v>
+        <v>523747.32308961242</v>
       </c>
       <c r="H130" s="3">
-        <v>320086.91574551654</v>
+        <v>285680.35804887954</v>
       </c>
       <c r="I130" s="3">
-        <v>91453.404498718912</v>
-      </c>
-      <c r="K130" s="34"/>
+        <v>47613.393008146435</v>
+      </c>
+      <c r="K130" s="36"/>
       <c r="L130" s="17"/>
       <c r="M130" s="27"/>
       <c r="N130" s="27"/>
@@ -5534,26 +5694,26 @@
       <c r="S130" s="27"/>
     </row>
     <row r="131" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C131" s="33"/>
+      <c r="C131" s="35"/>
       <c r="D131">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="E131" s="3">
-        <v>1010899.925234477</v>
+        <v>1005987.4494859097</v>
       </c>
       <c r="F131" s="3">
-        <v>791139.07192263426</v>
+        <v>777353.93823911203</v>
       </c>
       <c r="G131" s="3">
-        <v>571378.21861079126</v>
+        <v>548720.4269923144</v>
       </c>
       <c r="H131" s="3">
-        <v>351617.36529894848</v>
+        <v>320086.91574551654</v>
       </c>
       <c r="I131" s="3">
-        <v>131856.51198710571</v>
-      </c>
-      <c r="K131" s="34"/>
+        <v>91453.404498718912</v>
+      </c>
+      <c r="K131" s="36"/>
       <c r="L131" s="17"/>
       <c r="M131" s="27"/>
       <c r="N131" s="27"/>
@@ -5564,26 +5724,26 @@
       <c r="S131" s="27"/>
     </row>
     <row r="132" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C132" s="33"/>
+      <c r="C132" s="35"/>
       <c r="D132">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E132" s="3">
-        <v>1014743.9388750407</v>
+        <v>1010899.925234477</v>
       </c>
       <c r="F132" s="3">
-        <v>803338.95160940732</v>
+        <v>791139.07192263426</v>
       </c>
       <c r="G132" s="3">
-        <v>591933.96434377367</v>
+        <v>571378.21861079126</v>
       </c>
       <c r="H132" s="3">
-        <v>380528.97707814025</v>
+        <v>351617.36529894848</v>
       </c>
       <c r="I132" s="3">
-        <v>169123.98981250683</v>
-      </c>
-      <c r="K132" s="34"/>
+        <v>131856.51198710571</v>
+      </c>
+      <c r="K132" s="36"/>
       <c r="L132" s="17"/>
       <c r="M132" s="27"/>
       <c r="N132" s="27"/>
@@ -5594,26 +5754,26 @@
       <c r="S132" s="27"/>
     </row>
     <row r="133" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C133" s="33"/>
+      <c r="C133" s="35"/>
       <c r="D133">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E133" s="3">
-        <v>1017630.8285121893</v>
+        <v>1014743.9388750407</v>
       </c>
       <c r="F133" s="3">
-        <v>814104.66280975146</v>
+        <v>803338.95160940732</v>
       </c>
       <c r="G133" s="3">
-        <v>610578.49710731371</v>
+        <v>591933.96434377367</v>
       </c>
       <c r="H133" s="3">
-        <v>407052.33140487573</v>
+        <v>380528.97707814025</v>
       </c>
       <c r="I133" s="3">
-        <v>203526.16570243798</v>
-      </c>
-      <c r="K133" s="34"/>
+        <v>169123.98981250683</v>
+      </c>
+      <c r="K133" s="36"/>
       <c r="L133" s="17"/>
       <c r="M133" s="27"/>
       <c r="N133" s="27"/>
@@ -5624,26 +5784,26 @@
       <c r="S133" s="27"/>
     </row>
     <row r="134" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C134" s="33"/>
+      <c r="C134" s="35"/>
       <c r="D134">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E134" s="3">
-        <v>1019659.7388661277</v>
+        <v>1017630.8285121893</v>
       </c>
       <c r="F134" s="3">
-        <v>823571.32754571852</v>
+        <v>814104.66280975146</v>
       </c>
       <c r="G134" s="3">
-        <v>627482.91622530925</v>
+        <v>610578.49710731371</v>
       </c>
       <c r="H134" s="3">
-        <v>431394.50490490021</v>
+        <v>407052.33140487573</v>
       </c>
       <c r="I134" s="3">
-        <v>235306.09358449094</v>
-      </c>
-      <c r="K134" s="34"/>
+        <v>203526.16570243798</v>
+      </c>
+      <c r="K134" s="36"/>
       <c r="L134" s="17"/>
       <c r="M134" s="27"/>
       <c r="N134" s="27"/>
@@ -5654,26 +5814,26 @@
       <c r="S134" s="27"/>
     </row>
     <row r="135" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C135" s="33"/>
+      <c r="C135" s="35"/>
       <c r="D135">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="E135" s="3">
-        <v>1020919.1090528421</v>
+        <v>1019659.7388661277</v>
       </c>
       <c r="F135" s="3">
-        <v>831860.01478379732</v>
+        <v>823571.32754571852</v>
       </c>
       <c r="G135" s="3">
-        <v>642800.92051475239</v>
+        <v>627482.91622530925</v>
       </c>
       <c r="H135" s="3">
-        <v>453741.82624570769</v>
+        <v>431394.50490490021</v>
       </c>
       <c r="I135" s="3">
-        <v>264682.73197666276</v>
-      </c>
-      <c r="K135" s="34"/>
+        <v>235306.09358449094</v>
+      </c>
+      <c r="K135" s="36"/>
       <c r="L135" s="17"/>
       <c r="M135" s="27"/>
       <c r="N135" s="27"/>
@@ -5684,26 +5844,26 @@
       <c r="S135" s="27"/>
     </row>
     <row r="136" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C136" s="33"/>
+      <c r="C136" s="35"/>
       <c r="D136">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E136" s="3">
-        <v>1021487.9578300315</v>
+        <v>1020919.1090528421</v>
       </c>
       <c r="F136" s="3">
-        <v>839079.39393181168</v>
+        <v>831860.01478379732</v>
       </c>
       <c r="G136" s="3">
-        <v>656670.83003359172</v>
+        <v>642800.92051475239</v>
       </c>
       <c r="H136" s="3">
-        <v>474262.26613537176</v>
+        <v>453741.82624570769</v>
       </c>
       <c r="I136" s="3">
-        <v>291853.7022371518</v>
-      </c>
-      <c r="K136" s="34"/>
+        <v>264682.73197666276</v>
+      </c>
+      <c r="K136" s="36"/>
       <c r="L136" s="17"/>
       <c r="M136" s="27"/>
       <c r="N136" s="27"/>
@@ -5714,26 +5874,26 @@
       <c r="S136" s="27"/>
     </row>
     <row r="137" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C137" s="33"/>
+      <c r="C137" s="35"/>
       <c r="D137">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E137" s="3">
-        <v>1021436.9968100728</v>
+        <v>1021487.9578300315</v>
       </c>
       <c r="F137" s="3">
-        <v>845327.16977385338</v>
+        <v>839079.39393181168</v>
       </c>
       <c r="G137" s="3">
-        <v>669217.34273763397</v>
+        <v>656670.83003359172</v>
       </c>
       <c r="H137" s="3">
-        <v>493107.51570141432</v>
+        <v>474262.26613537176</v>
       </c>
       <c r="I137" s="3">
-        <v>316997.6886651949</v>
-      </c>
-      <c r="K137" s="34"/>
+        <v>291853.7022371518</v>
+      </c>
+      <c r="K137" s="36"/>
       <c r="L137" s="17"/>
       <c r="M137" s="27"/>
       <c r="N137" s="27"/>
@@ -5744,26 +5904,26 @@
       <c r="S137" s="27"/>
     </row>
     <row r="138" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C138" s="33"/>
+      <c r="C138" s="35"/>
       <c r="D138">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E138" s="3">
-        <v>1020829.5971091248</v>
+        <v>1021436.9968100728</v>
       </c>
       <c r="F138" s="3">
-        <v>850691.33092427056</v>
+        <v>845327.16977385338</v>
       </c>
       <c r="G138" s="3">
-        <v>680553.06473941659</v>
+        <v>669217.34273763397</v>
       </c>
       <c r="H138" s="3">
-        <v>510414.79855456227</v>
+        <v>493107.51570141432</v>
       </c>
       <c r="I138" s="3">
-        <v>340276.53236970818</v>
-      </c>
-      <c r="K138" s="34"/>
+        <v>316997.6886651949</v>
+      </c>
+      <c r="K138" s="36"/>
       <c r="L138" s="17"/>
       <c r="M138" s="27"/>
       <c r="N138" s="27"/>
@@ -5774,26 +5934,26 @@
       <c r="S138" s="27"/>
     </row>
     <row r="139" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C139" s="33"/>
+      <c r="C139" s="35"/>
       <c r="D139">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E139" s="3">
-        <v>1019722.6307705705</v>
+        <v>1020829.5971091248</v>
       </c>
       <c r="F139" s="3">
-        <v>855251.238710801</v>
+        <v>850691.33092427056</v>
       </c>
       <c r="G139" s="3">
-        <v>690779.84665103164</v>
+        <v>680553.06473941659</v>
       </c>
       <c r="H139" s="3">
-        <v>526308.45459126215</v>
+        <v>510414.79855456227</v>
       </c>
       <c r="I139" s="3">
-        <v>361837.06253149291</v>
-      </c>
-      <c r="K139" s="34"/>
+        <v>340276.53236970818</v>
+      </c>
+      <c r="K139" s="36"/>
       <c r="L139" s="17"/>
       <c r="M139" s="27"/>
       <c r="N139" s="27"/>
@@ -5804,26 +5964,26 @@
       <c r="S139" s="27"/>
     </row>
     <row r="140" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C140" s="33"/>
+      <c r="C140" s="35"/>
       <c r="D140">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E140" s="3">
-        <v>1018167.2048975942</v>
+        <v>1019722.6307705705</v>
       </c>
       <c r="F140" s="3">
-        <v>859078.57913234504</v>
+        <v>855251.238710801</v>
       </c>
       <c r="G140" s="3">
-        <v>699989.95336709591</v>
+        <v>690779.84665103164</v>
       </c>
       <c r="H140" s="3">
-        <v>540901.32760184677</v>
+        <v>526308.45459126215</v>
       </c>
       <c r="I140" s="3">
-        <v>381812.70183659787</v>
-      </c>
-      <c r="K140" s="34"/>
+        <v>361837.06253149291</v>
+      </c>
+      <c r="K140" s="36"/>
       <c r="L140" s="17"/>
       <c r="M140" s="27"/>
       <c r="N140" s="27"/>
@@ -5834,26 +5994,26 @@
       <c r="S140" s="27"/>
     </row>
     <row r="141" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C141" s="33"/>
+      <c r="C141" s="35"/>
       <c r="D141">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="E141" s="3">
-        <v>1016209.303615676</v>
+        <v>1018167.2048975942</v>
       </c>
       <c r="F141" s="3">
-        <v>862238.19700724026</v>
+        <v>859078.57913234504</v>
       </c>
       <c r="G141" s="3">
-        <v>708267.09039880452</v>
+        <v>699989.95336709591</v>
       </c>
       <c r="H141" s="3">
-        <v>554295.98379036877</v>
+        <v>540901.32760184677</v>
       </c>
       <c r="I141" s="3">
-        <v>400324.87718193303</v>
-      </c>
-      <c r="K141" s="34"/>
+        <v>381812.70183659787</v>
+      </c>
+      <c r="K141" s="36"/>
       <c r="L141" s="17"/>
       <c r="M141" s="27"/>
       <c r="N141" s="27"/>
@@ -5864,26 +6024,26 @@
       <c r="S141" s="27"/>
     </row>
     <row r="142" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C142" s="33"/>
+      <c r="C142" s="35"/>
       <c r="D142">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E142" s="3">
-        <v>1013890.3506513374</v>
+        <v>1016209.303615676</v>
       </c>
       <c r="F142" s="3">
-        <v>864788.82849672902</v>
+        <v>862238.19700724026</v>
       </c>
       <c r="G142" s="3">
-        <v>715687.30634212052</v>
+        <v>708267.09039880452</v>
       </c>
       <c r="H142" s="3">
-        <v>566585.78418751201</v>
+        <v>554295.98379036877</v>
       </c>
       <c r="I142" s="3">
-        <v>417484.26203290373</v>
-      </c>
-      <c r="K142" s="34"/>
+        <v>400324.87718193303</v>
+      </c>
+      <c r="K142" s="36"/>
       <c r="L142" s="17"/>
       <c r="M142" s="27"/>
       <c r="N142" s="27"/>
@@ -5894,26 +6054,26 @@
       <c r="S142" s="27"/>
     </row>
     <row r="143" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C143" s="33"/>
+      <c r="C143" s="35"/>
       <c r="D143">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E143" s="3">
-        <v>1011247.7033704214</v>
+        <v>1013890.3506513374</v>
       </c>
       <c r="F143" s="3">
-        <v>866783.74574607552</v>
+        <v>864788.82849672902</v>
       </c>
       <c r="G143" s="3">
-        <v>722319.78812172962</v>
+        <v>715687.30634212052</v>
       </c>
       <c r="H143" s="3">
-        <v>577855.83049738361</v>
+        <v>566585.78418751201</v>
       </c>
       <c r="I143" s="3">
-        <v>433391.87287303782</v>
-      </c>
-      <c r="K143" s="34"/>
+        <v>417484.26203290373</v>
+      </c>
+      <c r="K143" s="36"/>
       <c r="L143" s="17"/>
       <c r="M143" s="27"/>
       <c r="N143" s="27"/>
@@ -5924,26 +6084,26 @@
       <c r="S143" s="27"/>
     </row>
     <row r="144" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C144" s="33"/>
+      <c r="C144" s="35"/>
       <c r="D144">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E144" s="3">
-        <v>1008315.0874967946</v>
+        <v>1011247.7033704214</v>
       </c>
       <c r="F144" s="3">
-        <v>868271.32534446206</v>
+        <v>866783.74574607552</v>
       </c>
       <c r="G144" s="3">
-        <v>728227.56319212948</v>
+        <v>722319.78812172962</v>
       </c>
       <c r="H144" s="3">
-        <v>588183.80103979679</v>
+        <v>577855.83049738361</v>
       </c>
       <c r="I144" s="3">
-        <v>448140.03888746421</v>
-      </c>
-      <c r="K144" s="34"/>
+        <v>433391.87287303782</v>
+      </c>
+      <c r="K144" s="36"/>
       <c r="L144" s="17"/>
       <c r="M144" s="27"/>
       <c r="N144" s="27"/>
@@ -5954,26 +6114,26 @@
       <c r="S144" s="27"/>
     </row>
     <row r="145" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C145" s="33"/>
+      <c r="C145" s="35"/>
       <c r="D145">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E145" s="3">
-        <v>1005122.9803736784</v>
+        <v>1008315.0874967946</v>
       </c>
       <c r="F145" s="3">
-        <v>869295.55059345148</v>
+        <v>868271.32534446206</v>
       </c>
       <c r="G145" s="3">
-        <v>733468.1208132247</v>
+        <v>728227.56319212948</v>
       </c>
       <c r="H145" s="3">
-        <v>597640.69103299803</v>
+        <v>588183.80103979679</v>
       </c>
       <c r="I145" s="3">
-        <v>461813.26125277113</v>
-      </c>
-      <c r="K145" s="34"/>
+        <v>448140.03888746421</v>
+      </c>
+      <c r="K145" s="36"/>
       <c r="L145" s="17"/>
       <c r="M145" s="27"/>
       <c r="N145" s="27"/>
@@ -5984,26 +6144,26 @@
       <c r="S145" s="27"/>
     </row>
     <row r="146" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C146" s="33"/>
+      <c r="C146" s="35"/>
       <c r="D146">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E146" s="3">
-        <v>1001698.9494886256</v>
+        <v>1005122.9803736784</v>
       </c>
       <c r="F146" s="3">
-        <v>869896.45613485912</v>
+        <v>869295.55059345148</v>
       </c>
       <c r="G146" s="3">
-        <v>738093.96278109262</v>
+        <v>733468.1208132247</v>
       </c>
       <c r="H146" s="3">
-        <v>606291.469427326</v>
+        <v>597640.69103299803</v>
       </c>
       <c r="I146" s="3">
-        <v>474488.97607355961</v>
-      </c>
-      <c r="K146" s="34"/>
+        <v>461813.26125277113</v>
+      </c>
+      <c r="K146" s="36"/>
       <c r="L146" s="17"/>
       <c r="M146" s="27"/>
       <c r="N146" s="27"/>
@@ -6014,26 +6174,26 @@
       <c r="S146" s="27"/>
     </row>
     <row r="147" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C147" s="33"/>
+      <c r="C147" s="35"/>
       <c r="D147">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E147" s="3">
-        <v>998067.95202182769</v>
+        <v>1001698.9494886256</v>
       </c>
       <c r="F147" s="3">
-        <v>870110.52227543958</v>
+        <v>869896.45613485912</v>
       </c>
       <c r="G147" s="3">
-        <v>742153.09252905136</v>
+        <v>738093.96278109262</v>
       </c>
       <c r="H147" s="3">
-        <v>614195.66278266313</v>
+        <v>606291.469427326</v>
       </c>
       <c r="I147" s="3">
-        <v>486238.23303627502</v>
-      </c>
-      <c r="K147" s="34"/>
+        <v>474488.97607355961</v>
+      </c>
+      <c r="K147" s="36"/>
       <c r="L147" s="17"/>
       <c r="M147" s="27"/>
       <c r="N147" s="27"/>
@@ -6044,26 +6204,26 @@
       <c r="S147" s="27"/>
     </row>
     <row r="148" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C148" s="33"/>
+      <c r="C148" s="35"/>
       <c r="D148">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E148" s="3">
-        <v>994252.60036551394</v>
+        <v>998067.95202182769</v>
       </c>
       <c r="F148" s="3">
-        <v>869971.02531982469</v>
+        <v>870110.52227543958</v>
       </c>
       <c r="G148" s="3">
-        <v>745689.45027413545</v>
+        <v>742153.09252905136</v>
       </c>
       <c r="H148" s="3">
-        <v>621407.87522844621</v>
+        <v>614195.66278266313</v>
       </c>
       <c r="I148" s="3">
-        <v>497126.30018275697</v>
-      </c>
-      <c r="K148" s="34"/>
+        <v>486238.23303627502</v>
+      </c>
+      <c r="K148" s="36"/>
       <c r="L148" s="17"/>
       <c r="M148" s="27"/>
       <c r="N148" s="27"/>
@@ -6074,26 +6234,26 @@
       <c r="S148" s="27"/>
     </row>
     <row r="149" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C149" s="33"/>
+      <c r="C149" s="35"/>
       <c r="D149">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E149" s="3">
-        <v>990273.39787463588</v>
+        <v>994252.60036551394</v>
       </c>
       <c r="F149" s="3">
-        <v>869508.34935333882</v>
+        <v>869971.02531982469</v>
       </c>
       <c r="G149" s="3">
-        <v>748743.30083204177</v>
+        <v>745689.45027413545</v>
       </c>
       <c r="H149" s="3">
-        <v>627978.25231074472</v>
+        <v>621407.87522844621</v>
       </c>
       <c r="I149" s="3">
-        <v>507213.20378944767</v>
-      </c>
-      <c r="K149" s="34"/>
+        <v>497126.30018275697</v>
+      </c>
+      <c r="K149" s="36"/>
       <c r="L149" s="17"/>
       <c r="M149" s="27"/>
       <c r="N149" s="27"/>
@@ -6104,26 +6264,26 @@
       <c r="S149" s="27"/>
     </row>
     <row r="150" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C150" s="33"/>
+      <c r="C150" s="35"/>
       <c r="D150">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E150" s="3">
-        <v>986148.94852519152</v>
+        <v>990273.39787463588</v>
       </c>
       <c r="F150" s="3">
-        <v>868750.26417695452</v>
+        <v>869508.34935333882</v>
       </c>
       <c r="G150" s="3">
-        <v>751351.5798287174</v>
+        <v>748743.30083204177</v>
       </c>
       <c r="H150" s="3">
-        <v>633952.89548048028</v>
+        <v>627978.25231074472</v>
       </c>
       <c r="I150" s="3">
-        <v>516554.21113224328</v>
-      </c>
-      <c r="K150" s="34"/>
+        <v>507213.20378944767</v>
+      </c>
+      <c r="K150" s="36"/>
       <c r="L150" s="17"/>
       <c r="M150" s="27"/>
       <c r="N150" s="27"/>
@@ -6134,26 +6294,26 @@
       <c r="S150" s="27"/>
     </row>
     <row r="151" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C151" s="33"/>
+      <c r="C151" s="35"/>
       <c r="D151">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="E151" s="3">
-        <v>981896.1436597032</v>
+        <v>986148.94852519152</v>
       </c>
       <c r="F151" s="3">
-        <v>867722.17346671445</v>
+        <v>868750.26417695452</v>
       </c>
       <c r="G151" s="3">
-        <v>753548.2032737257</v>
+        <v>751351.5798287174</v>
       </c>
       <c r="H151" s="3">
-        <v>639374.23308073694</v>
+        <v>633952.89548048028</v>
       </c>
       <c r="I151" s="3">
-        <v>525200.26288774819</v>
-      </c>
-      <c r="K151" s="34"/>
+        <v>516554.21113224328</v>
+      </c>
+      <c r="K151" s="36"/>
       <c r="L151" s="17"/>
       <c r="M151" s="27"/>
       <c r="N151" s="27"/>
@@ -6164,26 +6324,26 @@
       <c r="S151" s="27"/>
     </row>
     <row r="152" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C152" s="33"/>
+      <c r="C152" s="35"/>
       <c r="D152">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="E152" s="3">
-        <v>977530.32857533952</v>
+        <v>981896.1436597032</v>
       </c>
       <c r="F152" s="3">
-        <v>866447.33669177815</v>
+        <v>867722.17346671445</v>
       </c>
       <c r="G152" s="3">
-        <v>755364.34480821691</v>
+        <v>753548.2032737257</v>
       </c>
       <c r="H152" s="3">
-        <v>644281.35292465554</v>
+        <v>639374.23308073694</v>
       </c>
       <c r="I152" s="3">
-        <v>533198.36104109429</v>
-      </c>
-      <c r="K152" s="34"/>
+        <v>525200.26288774819</v>
+      </c>
+      <c r="K152" s="36"/>
       <c r="L152" s="17"/>
       <c r="M152" s="27"/>
       <c r="N152" s="27"/>
@@ -6194,26 +6354,26 @@
       <c r="S152" s="27"/>
     </row>
     <row r="153" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C153" s="33"/>
+      <c r="C153" s="35"/>
       <c r="D153">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="E153" s="3">
-        <v>973065.45134776062</v>
+        <v>977530.32857533952</v>
       </c>
       <c r="F153" s="3">
-        <v>864947.06786467612</v>
+        <v>866447.33669177815</v>
       </c>
       <c r="G153" s="3">
-        <v>756828.68438159162</v>
+        <v>755364.34480821691</v>
       </c>
       <c r="H153" s="3">
-        <v>648710.30089850712</v>
+        <v>644281.35292465554</v>
       </c>
       <c r="I153" s="3">
-        <v>540591.91741542262</v>
-      </c>
-      <c r="K153" s="34"/>
+        <v>533198.36104109429</v>
+      </c>
+      <c r="K153" s="36"/>
       <c r="L153" s="17"/>
       <c r="M153" s="27"/>
       <c r="N153" s="27"/>
@@ -6224,26 +6384,26 @@
       <c r="S153" s="27"/>
     </row>
     <row r="154" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C154" s="33"/>
+      <c r="C154" s="35"/>
       <c r="D154">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="E154" s="3">
-        <v>968514.19597288431</v>
+        <v>973065.45134776062</v>
       </c>
       <c r="F154" s="3">
-        <v>863240.91380191862</v>
+        <v>864947.06786467612</v>
       </c>
       <c r="G154" s="3">
-        <v>757967.63163095294</v>
+        <v>756828.68438159162</v>
       </c>
       <c r="H154" s="3">
-        <v>652694.34945998725</v>
+        <v>648710.30089850712</v>
       </c>
       <c r="I154" s="3">
-        <v>547421.06728902156</v>
-      </c>
-      <c r="K154" s="34"/>
+        <v>540591.91741542262</v>
+      </c>
+      <c r="K154" s="36"/>
       <c r="L154" s="17"/>
       <c r="M154" s="27"/>
       <c r="N154" s="27"/>
@@ -6254,26 +6414,26 @@
       <c r="S154" s="27"/>
     </row>
     <row r="155" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C155" s="33"/>
+      <c r="C155" s="35"/>
       <c r="D155">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="E155" s="3">
-        <v>963888.10164198466</v>
+        <v>968514.19597288431</v>
       </c>
       <c r="F155" s="3">
-        <v>861346.81423326291</v>
+        <v>863240.91380191862</v>
       </c>
       <c r="G155" s="3">
-        <v>758805.52682454116</v>
+        <v>757967.63163095294</v>
       </c>
       <c r="H155" s="3">
-        <v>656264.23941581941</v>
+        <v>652694.34945998725</v>
       </c>
       <c r="I155" s="3">
-        <v>553722.95200709766</v>
-      </c>
-      <c r="K155" s="34"/>
+        <v>547421.06728902156</v>
+      </c>
+      <c r="K155" s="36"/>
       <c r="L155" s="17"/>
       <c r="M155" s="27"/>
       <c r="N155" s="27"/>
@@ -6284,26 +6444,26 @@
       <c r="S155" s="27"/>
     </row>
     <row r="156" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C156" s="33"/>
+      <c r="C156" s="35"/>
       <c r="D156">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="E156" s="3">
-        <v>959197.66973572189</v>
+        <v>963888.10164198466</v>
       </c>
       <c r="F156" s="3">
-        <v>859281.24580491753</v>
+        <v>861346.81423326291</v>
       </c>
       <c r="G156" s="3">
-        <v>759364.82187411317</v>
+        <v>758805.52682454116</v>
       </c>
       <c r="H156" s="3">
-        <v>659448.39794330881</v>
+        <v>656264.23941581941</v>
       </c>
       <c r="I156" s="3">
-        <v>559531.97401250445</v>
-      </c>
-      <c r="K156" s="34"/>
+        <v>553722.95200709766</v>
+      </c>
+      <c r="K156" s="36"/>
       <c r="L156" s="17"/>
       <c r="M156" s="27"/>
       <c r="N156" s="27"/>
@@ -6314,26 +6474,26 @@
       <c r="S156" s="27"/>
     </row>
     <row r="157" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C157" s="33"/>
+      <c r="C157" s="35"/>
       <c r="D157">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="E157" s="3">
-        <v>954452.45992453163</v>
+        <v>959197.66973572189</v>
       </c>
       <c r="F157" s="3">
-        <v>857059.35176896723</v>
+        <v>859281.24580491753</v>
       </c>
       <c r="G157" s="3">
-        <v>759666.24361340271</v>
+        <v>759364.82187411317</v>
       </c>
       <c r="H157" s="3">
-        <v>662273.1354578383</v>
+        <v>659448.39794330881</v>
       </c>
       <c r="I157" s="3">
-        <v>564880.0273022739</v>
-      </c>
-      <c r="K157" s="34"/>
+        <v>559531.97401250445</v>
+      </c>
+      <c r="K157" s="36"/>
       <c r="L157" s="17"/>
       <c r="M157" s="27"/>
       <c r="N157" s="27"/>
@@ -6344,26 +6504,26 @@
       <c r="S157" s="27"/>
     </row>
     <row r="158" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C158" s="33"/>
+      <c r="C158" s="35"/>
       <c r="D158">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E158" s="3">
-        <v>949661.17659155186</v>
+        <v>954452.45992453163</v>
       </c>
       <c r="F158" s="3">
-        <v>854695.0589323967</v>
+        <v>857059.35176896723</v>
       </c>
       <c r="G158" s="3">
-        <v>759728.94127324154</v>
+        <v>759666.24361340271</v>
       </c>
       <c r="H158" s="3">
-        <v>664762.82361408637</v>
+        <v>662273.1354578383</v>
       </c>
       <c r="I158" s="3">
-        <v>569796.70595493121</v>
-      </c>
-      <c r="K158" s="34"/>
+        <v>564880.0273022739</v>
+      </c>
+      <c r="K158" s="36"/>
       <c r="L158" s="17"/>
       <c r="M158" s="27"/>
       <c r="N158" s="27"/>
@@ -6374,26 +6534,26 @@
       <c r="S158" s="27"/>
     </row>
     <row r="159" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C159" s="33"/>
+      <c r="C159" s="35"/>
       <c r="D159">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="E159" s="3">
-        <v>944831.7466459123</v>
+        <v>949661.17659155186</v>
       </c>
       <c r="F159" s="3">
-        <v>852201.18324925425</v>
+        <v>854695.0589323967</v>
       </c>
       <c r="G159" s="3">
-        <v>759570.6198525962</v>
+        <v>759728.94127324154</v>
       </c>
       <c r="H159" s="3">
-        <v>666940.05645593815</v>
+        <v>664762.82361408637</v>
       </c>
       <c r="I159" s="3">
-        <v>574309.4930592801</v>
-      </c>
-      <c r="K159" s="34"/>
+        <v>569796.70595493121</v>
+      </c>
+      <c r="K159" s="36"/>
       <c r="L159" s="17"/>
       <c r="M159" s="27"/>
       <c r="N159" s="27"/>
@@ -6404,26 +6564,26 @@
       <c r="S159" s="27"/>
     </row>
     <row r="160" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C160" s="33"/>
+      <c r="C160" s="35"/>
       <c r="D160">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="E160" s="3">
-        <v>939971.38966554333</v>
+        <v>944831.7466459123</v>
       </c>
       <c r="F160" s="3">
-        <v>849589.52527462575</v>
+        <v>852201.18324925425</v>
       </c>
       <c r="G160" s="3">
-        <v>759207.66088370804</v>
+        <v>759570.6198525962</v>
       </c>
       <c r="H160" s="3">
-        <v>668825.79649279045</v>
+        <v>666940.05645593815</v>
       </c>
       <c r="I160" s="3">
-        <v>578443.93210187287</v>
-      </c>
-      <c r="K160" s="34"/>
+        <v>574309.4930592801</v>
+      </c>
+      <c r="K160" s="36"/>
       <c r="L160" s="17"/>
       <c r="M160" s="27"/>
       <c r="N160" s="27"/>
@@ -6434,26 +6594,26 @@
       <c r="S160" s="27"/>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C161" s="33"/>
+      <c r="C161" s="35"/>
       <c r="D161">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="E161" s="3">
-        <v>935086.68119681976</v>
+        <v>939971.38966554333</v>
       </c>
       <c r="F161" s="3">
-        <v>846870.95655561041</v>
+        <v>849589.52527462575</v>
       </c>
       <c r="G161" s="3">
-        <v>758655.23191440094</v>
+        <v>759207.66088370804</v>
       </c>
       <c r="H161" s="3">
-        <v>670439.50727319147</v>
+        <v>668825.79649279045</v>
       </c>
       <c r="I161" s="3">
-        <v>582223.78263198212</v>
-      </c>
-      <c r="K161" s="34"/>
+        <v>578443.93210187287</v>
+      </c>
+      <c r="K161" s="36"/>
       <c r="L161" s="17"/>
       <c r="M161" s="27"/>
       <c r="N161" s="27"/>
@@ -6464,26 +6624,26 @@
       <c r="S161" s="27"/>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C162" s="33"/>
+      <c r="C162" s="35"/>
       <c r="D162">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="E162" s="3">
-        <v>930183.60994096333</v>
+        <v>935086.68119681976</v>
       </c>
       <c r="F162" s="3">
-        <v>844055.4979093927</v>
+        <v>846870.95655561041</v>
       </c>
       <c r="G162" s="3">
-        <v>757927.38587782206</v>
+        <v>758655.23191440094</v>
       </c>
       <c r="H162" s="3">
-        <v>671799.27384625131</v>
+        <v>670439.50727319147</v>
       </c>
       <c r="I162" s="3">
-        <v>585671.16181468067</v>
-      </c>
-      <c r="K162" s="34"/>
+        <v>582223.78263198212</v>
+      </c>
+      <c r="K162" s="36"/>
       <c r="L162" s="17"/>
       <c r="M162" s="27"/>
       <c r="N162" s="27"/>
@@ -6494,26 +6654,26 @@
       <c r="S162" s="27"/>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C163" s="33"/>
+      <c r="C163" s="35"/>
       <c r="D163">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="E163" s="3">
-        <v>925267.62947215489</v>
+        <v>930183.60994096333</v>
       </c>
       <c r="F163" s="3">
-        <v>841152.3904292318</v>
+        <v>844055.4979093927</v>
       </c>
       <c r="G163" s="3">
-        <v>757037.1513863086</v>
+        <v>757927.38587782206</v>
       </c>
       <c r="H163" s="3">
-        <v>672921.9123433854</v>
+        <v>671799.27384625131</v>
       </c>
       <c r="I163" s="3">
-        <v>588806.67330046219</v>
-      </c>
-      <c r="K163" s="34"/>
+        <v>585671.16181468067</v>
+      </c>
+      <c r="K163" s="36"/>
       <c r="L163" s="17"/>
       <c r="M163" s="27"/>
       <c r="N163" s="27"/>
@@ -6524,26 +6684,26 @@
       <c r="S163" s="27"/>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C164" s="33"/>
+      <c r="C164" s="35"/>
       <c r="D164">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="E164" s="3">
-        <v>920343.70505813346</v>
+        <v>925267.62947215489</v>
       </c>
       <c r="F164" s="3">
-        <v>838170.15996365738</v>
+        <v>841152.3904292318</v>
       </c>
       <c r="G164" s="3">
-        <v>755996.61486918107</v>
+        <v>757037.1513863086</v>
       </c>
       <c r="H164" s="3">
-        <v>673823.06977470487</v>
+        <v>672921.9123433854</v>
       </c>
       <c r="I164" s="3">
-        <v>591649.52468022867</v>
-      </c>
-      <c r="K164" s="34"/>
+        <v>588806.67330046219</v>
+      </c>
+      <c r="K164" s="36"/>
       <c r="L164" s="17"/>
       <c r="M164" s="27"/>
       <c r="N164" s="27"/>
@@ -6554,26 +6714,26 @@
       <c r="S164" s="27"/>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C165" s="33"/>
+      <c r="C165" s="35"/>
       <c r="D165">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="E165" s="3">
-        <v>915416.35608907125</v>
+        <v>920343.70505813346</v>
       </c>
       <c r="F165" s="3">
-        <v>835116.67573038081</v>
+        <v>838170.15996365738</v>
       </c>
       <c r="G165" s="3">
-        <v>754816.99537169037</v>
+        <v>755996.61486918107</v>
       </c>
       <c r="H165" s="3">
-        <v>674517.31501299981</v>
+        <v>673823.06977470487</v>
       </c>
       <c r="I165" s="3">
-        <v>594217.63465430937</v>
-      </c>
-      <c r="K165" s="34"/>
+        <v>591649.52468022867</v>
+      </c>
+      <c r="K165" s="36"/>
       <c r="L165" s="17"/>
       <c r="M165" s="27"/>
       <c r="N165" s="27"/>
@@ -6584,26 +6744,26 @@
       <c r="S165" s="27"/>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C166" s="33"/>
+      <c r="C166" s="35"/>
       <c r="D166">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="E166" s="3">
-        <v>910489.69456360023</v>
+        <v>915416.35608907125</v>
       </c>
       <c r="F166" s="3">
-        <v>831999.203652945</v>
+        <v>835116.67573038081</v>
       </c>
       <c r="G166" s="3">
-        <v>753508.71274228976</v>
+        <v>754816.99537169037</v>
       </c>
       <c r="H166" s="3">
-        <v>675018.22183163464</v>
+        <v>674517.31501299981</v>
       </c>
       <c r="I166" s="3">
-        <v>596527.7309209794</v>
-      </c>
-      <c r="K166" s="34"/>
+        <v>594217.63465430937</v>
+      </c>
+      <c r="K166" s="36"/>
       <c r="L166" s="17"/>
       <c r="M166" s="27"/>
       <c r="N166" s="27"/>
@@ -6613,9 +6773,27 @@
       <c r="R166" s="27"/>
       <c r="S166" s="27"/>
     </row>
-    <row r="167" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="30"/>
-      <c r="K167" s="34"/>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C167" s="35"/>
+      <c r="D167">
+        <v>830</v>
+      </c>
+      <c r="E167" s="3">
+        <v>910489.69456360023</v>
+      </c>
+      <c r="F167" s="3">
+        <v>831999.203652945</v>
+      </c>
+      <c r="G167" s="3">
+        <v>753508.71274228976</v>
+      </c>
+      <c r="H167" s="3">
+        <v>675018.22183163464</v>
+      </c>
+      <c r="I167" s="3">
+        <v>596527.7309209794</v>
+      </c>
+      <c r="K167" s="36"/>
       <c r="L167" s="17"/>
       <c r="M167" s="27"/>
       <c r="N167" s="27"/>
@@ -6625,64 +6803,88 @@
       <c r="R167" s="27"/>
       <c r="S167" s="27"/>
     </row>
-    <row r="169" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="19" t="s">
-        <v>46</v>
+    <row r="168" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="30"/>
+      <c r="K168" s="36"/>
+      <c r="L168" s="17"/>
+      <c r="M168" s="27"/>
+      <c r="N168" s="27"/>
+      <c r="O168" s="27"/>
+      <c r="P168" s="27"/>
+      <c r="Q168" s="27"/>
+      <c r="R168" s="27"/>
+      <c r="S168" s="27"/>
+    </row>
+    <row r="170" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B170" s="33"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="33"/>
+      <c r="I170" s="33"/>
+      <c r="J170" s="33"/>
+      <c r="K170" s="33"/>
+      <c r="L170" s="33"/>
+    </row>
+    <row r="171" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="29" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="M108:S108"/>
-    <mergeCell ref="C109:C166"/>
-    <mergeCell ref="K110:K167"/>
+  <mergeCells count="8">
+    <mergeCell ref="A170:L170"/>
+    <mergeCell ref="M109:S109"/>
+    <mergeCell ref="C110:C167"/>
+    <mergeCell ref="K111:K168"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:L3"/>
-    <mergeCell ref="E107:I107"/>
+    <mergeCell ref="E108:I108"/>
   </mergeCells>
-  <conditionalFormatting sqref="E109:E166">
+  <conditionalFormatting sqref="E110:E167">
     <cfRule type="expression" dxfId="8" priority="5">
-      <formula>E109=MAX($E$109:$E$166)</formula>
+      <formula>E110=MAX($E$110:$E$167)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="6">
       <formula>"MAX($E$99:$E$156)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:F166">
+  <conditionalFormatting sqref="F110:F167">
     <cfRule type="expression" dxfId="6" priority="4">
-      <formula>F109=MAX($F$109:$F$166)</formula>
+      <formula>F110=MAX($F$110:$F$167)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$F$109=MAX($F$109:$F$166)</formula>
+      <formula>$F$110=MAX($F$110:$F$167)</formula>
     </cfRule>
     <cfRule type="expression" priority="8">
-      <formula>$F$109=MAX($F$109:$F$166)</formula>
+      <formula>$F$110=MAX($F$110:$F$167)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"max($F$99:$F$156)"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="10">
-      <formula>F109=MAX($E$109:$E$166)</formula>
+      <formula>F110=MAX($E$110:$E$167)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J117:J119">
+  <conditionalFormatting sqref="J118:J120">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>G107=MAX($G$109:$G$166)</formula>
+      <formula>G108=MAX($G$110:$G$167)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M110:M167">
+  <conditionalFormatting sqref="M111:M168">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>M110=MAX($M$110:$M$167)</formula>
+      <formula>M111=MAX($M$111:$M$168)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R118">
+  <conditionalFormatting sqref="R119">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>O110=MAX($O$110:$O$167)</formula>
+      <formula>O111=MAX($O$111:$O$168)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
